--- a/src/test/SpreadSheets/NonInitializeJavaMath.xlsx
+++ b/src/test/SpreadSheets/NonInitializeJavaMath.xlsx
@@ -34,7 +34,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="headerFont"/>
+      <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
     </font>
@@ -80,15 +80,15 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="true" quotePrefix="false" applyFill="true">
-      <alignment horizontal="center" wrapText="false" vertical="center"/>
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" quotePrefix="false" applyNumberFormat="true">
-      <alignment horizontal="center" wrapText="false" vertical="center"/>
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
       <protection hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" quotePrefix="false" applyNumberFormat="true">
-      <alignment horizontal="center" wrapText="false" vertical="center"/>
+      <alignment wrapText="false" horizontal="center" vertical="center"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -97,27 +97,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.75" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
